--- a/Web/busan_dong/F_Final_PIH_V1.xlsx
+++ b/Web/busan_dong/F_Final_PIH_V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82102\Desktop\Project\Web\busan_dong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F969C504-81EC-405F-AD1B-D664428912ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFB61E5-AFBF-43F8-875A-32D515E1103F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2940" yWindow="5625" windowWidth="17595" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="17190" yWindow="4425" windowWidth="17595" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1059,16 +1059,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R11" sqref="A2:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="9.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.125" customWidth="1"/>
     <col min="15" max="15" width="13.75" customWidth="1"/>
     <col min="16" max="16" width="10.125" customWidth="1"/>
